--- a/Global/Global Setup/Main.rvl.xlsx
+++ b/Global/Global Setup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
   <si>
     <t>Flow</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>C:\SpiraRepository\UX 365 Regression Testing\Accounting\Create Company</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>****Test runs all tests required to test a product sales transaction from start to finish.</t>
+  </si>
+  <si>
+    <t>*****All Product Setup must already be created prior to running this test.</t>
+  </si>
+  <si>
+    <t>****Test runs all tests required prior to any regression tesing.</t>
+  </si>
+  <si>
+    <t>********Run Test: Begin Transaction*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Open test org*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Set Application Parameter Config. Values*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Validate Global Setup Defaults*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Company*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Chart of Accounts*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Create check payment product*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Tax Product*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Tax Rates*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Global\Open test org</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Global\Set Application Parameter Config. Values</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Accounting\Validate Global Setup Defaults</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Accounting\Create Company</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Accounting\Create Chart of Accounts</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Payments\Create check payment product</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Accounting\Create Tax Product</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Accounting\Create Tax Rates</t>
   </si>
 </sst>
 </file>
@@ -126,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="179">
+  <borders count="226">
     <border>
       <left/>
       <right/>
@@ -312,11 +378,58 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -496,6 +609,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="203" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="204" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="205" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="206" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="207" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="208" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="210" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="211" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="212" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="213" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="214" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="215" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="216" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="217" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="218" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="219" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="220" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="221" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="222" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="223" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="224" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="225" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -545,116 +705,134 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="180"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="181"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="162" t="s">
+      <c r="F6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="161"/>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-    </row>
     <row r="9">
-      <c r="A9" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
+      <c r="A9" s="182"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="163"/>
+      <c r="A10" s="161"/>
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -671,170 +849,188 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="183"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="163"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="169"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="184"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="169"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="89" t="s">
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B20" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="170"/>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="112"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="171"/>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
     </row>
     <row r="21">
-      <c r="A21" s="121" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="128"/>
+      <c r="A21" s="185"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="172"/>
+      <c r="A22" s="170"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -851,103 +1047,256 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="129"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="136"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104"/>
     </row>
     <row r="24">
-      <c r="A24" s="137" t="s">
+      <c r="A24" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="107"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="112"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="186"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="171"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="113"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="120"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="128"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="187"/>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="172"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="129"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="136"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="144"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="173"/>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="144"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="188"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="173"/>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="145"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="152"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="153"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="160"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="164"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="165"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="166"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="167"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="168"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="174"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="175"/>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="176"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="152"/>
     </row>
     <row r="36">
-      <c r="A36" s="177"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="160"/>
     </row>
     <row r="37">
-      <c r="A37" s="178"/>
+      <c r="A37" s="164"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="165"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="166"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="167"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="168"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="174"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="175"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="176"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="177"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="178"/>
     </row>
   </sheetData>
 </worksheet>
